--- a/data_year/zb/社会服务/提供住宿的民政机构床位数.xlsx
+++ b/data_year/zb/社会服务/提供住宿的民政机构床位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,515 +468,303 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.6</v>
+        <v>21.9</v>
       </c>
       <c r="D2" t="n">
-        <v>104.54</v>
+        <v>316.1</v>
       </c>
       <c r="E2" t="n">
-        <v>113.04</v>
+        <v>349.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.89</v>
+        <v>2.61</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="C3" t="n">
-        <v>19.6</v>
+        <v>13.9</v>
       </c>
       <c r="D3" t="n">
-        <v>114.6</v>
+        <v>369.2</v>
       </c>
       <c r="E3" t="n">
-        <v>140.7</v>
+        <v>396.4</v>
       </c>
       <c r="F3" t="n">
-        <v>1.1</v>
+        <v>2.94</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>19.8</v>
+        <v>17.4</v>
       </c>
       <c r="D4" t="n">
-        <v>114.9</v>
+        <v>416.5</v>
       </c>
       <c r="E4" t="n">
-        <v>141.5</v>
+        <v>449.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.1</v>
+        <v>3.32</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.7</v>
+        <v>9.84</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="D5" t="n">
-        <v>120.6</v>
+        <v>429.5</v>
       </c>
       <c r="E5" t="n">
-        <v>142.9</v>
+        <v>462.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1.11</v>
+        <v>3.87</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>10.8</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>139.5</v>
+        <v>390.2</v>
       </c>
       <c r="E6" t="n">
-        <v>157.2</v>
+        <v>426</v>
       </c>
       <c r="F6" t="n">
-        <v>1.21</v>
+        <v>4.4855010162</v>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.2</v>
+        <v>10.0112</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>17.0958</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1</v>
+        <v>358.2</v>
       </c>
       <c r="E7" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.38</v>
-      </c>
+        <v>393.2</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.2</v>
+        <v>10.0097</v>
       </c>
       <c r="C8" t="n">
-        <v>17.3</v>
+        <v>16.747</v>
       </c>
       <c r="D8" t="n">
-        <v>179.6</v>
+        <v>378.7751</v>
       </c>
       <c r="E8" t="n">
-        <v>204.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.56</v>
-      </c>
+        <v>414.0062</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.4</v>
+        <v>10.3</v>
       </c>
       <c r="C9" t="n">
-        <v>18.6</v>
+        <v>17.1</v>
       </c>
       <c r="D9" t="n">
-        <v>242.9</v>
+        <v>383.5</v>
       </c>
       <c r="E9" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.04</v>
-      </c>
+        <v>419.6</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>4.7</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.3</v>
+        <v>9.717499999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2</v>
+        <v>12.7451</v>
       </c>
       <c r="D10" t="n">
-        <v>267.4</v>
+        <v>379.3724</v>
       </c>
       <c r="E10" t="n">
-        <v>300.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.26</v>
-      </c>
+        <v>408.143</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>6.308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.8</v>
+        <v>9.866199999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>22.3</v>
+        <v>12.2092</v>
       </c>
       <c r="D11" t="n">
-        <v>293.5</v>
+        <v>438.7879</v>
       </c>
       <c r="E11" t="n">
-        <v>326.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.45</v>
-      </c>
+        <v>467.3659</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>5.9</v>
+        <v>6.5026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>10.0922</v>
       </c>
       <c r="C12" t="n">
-        <v>21.9</v>
+        <v>10.3639</v>
       </c>
       <c r="D12" t="n">
-        <v>316.1</v>
+        <v>488.2366</v>
       </c>
       <c r="E12" t="n">
-        <v>349.6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.61</v>
-      </c>
+        <v>515.4385</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>6.1</v>
+        <v>6.7458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.8</v>
+        <v>9.831099999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>13.9</v>
+        <v>9.965999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>369.2</v>
+        <v>503.5753</v>
       </c>
       <c r="E13" t="n">
-        <v>396.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.94</v>
-      </c>
+        <v>530.4875</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>6.5</v>
+        <v>7.1151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="C14" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>416.5</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>449.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>429.5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>462.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>17</v>
-      </c>
-      <c r="D16" t="n">
-        <v>390.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>426</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.4855010162</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10.0112</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17.0958</v>
-      </c>
-      <c r="D17" t="n">
-        <v>358.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>393.2</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10.0097</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16.747</v>
-      </c>
-      <c r="D18" t="n">
-        <v>378.7751</v>
-      </c>
-      <c r="E18" t="n">
-        <v>414.0062</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>383.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>419.6</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9.717499999999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12.7451</v>
-      </c>
-      <c r="D20" t="n">
-        <v>379.3724</v>
-      </c>
-      <c r="E20" t="n">
-        <v>408.143</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>6.308</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9.866199999999999</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12.2092</v>
-      </c>
-      <c r="D21" t="n">
-        <v>438.7879</v>
-      </c>
-      <c r="E21" t="n">
-        <v>467.3659</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>6.5026</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>10.0922</v>
-      </c>
-      <c r="C22" t="n">
-        <v>10.3639</v>
-      </c>
-      <c r="D22" t="n">
-        <v>488.2366</v>
-      </c>
-      <c r="E22" t="n">
-        <v>515.4385</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>6.7458</v>
-      </c>
+        <v>539.6</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
